--- a/statistiche/RandomForestCounterfactuals/RC.xlsx
+++ b/statistiche/RandomForestCounterfactuals/RC.xlsx
@@ -38,12 +38,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FAF5E9"/>
+        <fgColor rgb="00E9ECEF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFCCCB"/>
+        <fgColor rgb="00FFF3CD"/>
       </patternFill>
     </fill>
   </fills>
@@ -458,77 +458,77 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Admission IC</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Release B</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Release D</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>ER Triage</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Admission IC</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Leucocytes</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ER Sepsis Triage</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>IV Antibiotics</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>IV Liquid</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Release A</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>IV Antibiotics</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Leucocytes</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Release B</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>LacticAcid</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>CRP</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Release C</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>other</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Admission NC</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>ER Registration</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>IV Liquid</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Release C</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>CRP</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>LacticAcid</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>ER Sepsis Triage</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Admission NC</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Release D</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
@@ -575,7 +575,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" s="2" t="n">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R2" s="3" t="inlineStr">
         <is>
@@ -624,7 +624,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -648,10 +648,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -660,10 +660,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3" s="3" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="2" t="n">
         <v>0</v>
@@ -700,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" s="2" t="n">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4" s="3" t="inlineStr">
         <is>
@@ -755,38 +755,38 @@
       <c r="A5" t="inlineStr"/>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
         <v>2</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
@@ -794,10 +794,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5" s="3" t="inlineStr">
         <is>
@@ -825,7 +825,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="2" t="n">
         <v>0</v>
@@ -834,16 +834,16 @@
         <v>0</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" s="2" t="n">
         <v>0</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" s="2" t="n">
         <v>0</v>
@@ -861,13 +861,13 @@
         <v>0</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P6" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6" s="3" t="inlineStr">
         <is>
@@ -889,7 +889,7 @@
       <c r="A7" t="inlineStr"/>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -898,13 +898,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
@@ -919,16 +919,16 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
@@ -959,7 +959,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" s="2" t="n">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="2" t="n">
         <v>0</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" s="2" t="n">
         <v>0</v>
@@ -995,13 +995,13 @@
         <v>0</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P8" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8" s="3" t="inlineStr">
         <is>
@@ -1023,7 +1023,7 @@
       <c r="A9" t="inlineStr"/>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1032,13 +1032,13 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -1093,7 +1093,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" s="2" t="n">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>0</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" s="2" t="n">
         <v>1</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" s="2" t="n">
         <v>0</v>
@@ -1129,13 +1129,13 @@
         <v>0</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10" s="3" t="inlineStr">
         <is>
@@ -1163,7 +1163,7 @@
         <v>6</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" s="2" t="n">
         <v>0</v>
@@ -1172,16 +1172,16 @@
         <v>0</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" s="2" t="n">
         <v>1</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" s="2" t="n">
         <v>1</v>
@@ -1199,13 +1199,13 @@
         <v>0</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R11" s="3" t="inlineStr">
         <is>
@@ -1227,7 +1227,7 @@
       <c r="A12" t="inlineStr"/>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1236,16 +1236,16 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>1</v>
@@ -1269,7 +1269,7 @@
         <v>1</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R12" s="3" t="inlineStr">
         <is>
@@ -1297,7 +1297,7 @@
         <v>7</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" s="2" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>1</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" s="2" t="n">
         <v>1</v>
@@ -1333,13 +1333,13 @@
         <v>0</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R13" s="3" t="inlineStr">
         <is>
@@ -1367,7 +1367,7 @@
         <v>8</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" s="2" t="n">
         <v>0</v>
@@ -1382,7 +1382,7 @@
         <v>1</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" s="2" t="n">
         <v>1</v>
@@ -1403,13 +1403,13 @@
         <v>0</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P14" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14" s="3" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         <v>9</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" s="2" t="n">
         <v>0</v>
@@ -1452,7 +1452,7 @@
         <v>1</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" s="2" t="n">
         <v>1</v>
@@ -1473,13 +1473,13 @@
         <v>0</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P15" s="2" t="n">
         <v>2</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15" s="3" t="inlineStr">
         <is>
@@ -1507,7 +1507,7 @@
         <v>10</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" s="2" t="n">
         <v>0</v>
@@ -1522,7 +1522,7 @@
         <v>1</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" s="2" t="n">
         <v>1</v>
@@ -1543,13 +1543,13 @@
         <v>0</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16" s="2" t="n">
         <v>2</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R16" s="3" t="inlineStr">
         <is>
@@ -1577,7 +1577,7 @@
         <v>11</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" s="2" t="n">
         <v>0</v>
@@ -1592,7 +1592,7 @@
         <v>1</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" s="2" t="n">
         <v>1</v>
@@ -1613,13 +1613,13 @@
         <v>0</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P17" s="2" t="n">
         <v>2</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R17" s="3" t="inlineStr">
         <is>
@@ -1647,13 +1647,13 @@
         <v>12</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" s="2" t="n">
         <v>1</v>
@@ -1662,7 +1662,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" s="2" t="n">
         <v>1</v>
@@ -1671,7 +1671,7 @@
         <v>1</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18" s="2" t="n">
         <v>0</v>
@@ -1683,13 +1683,13 @@
         <v>0</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P18" s="2" t="n">
         <v>2</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R18" s="3" t="inlineStr">
         <is>
